--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1008222.868173535</v>
+        <v>1005662.684013669</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673444</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>62.68669551168225</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4859536980655</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.30660220273189</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.2118254010829</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>234.136805112099</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>7.157261199728277</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,13 +1108,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>170.981233410929</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>130.6528593994778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>266.4388874644147</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>109.4802992154492</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>163.9656095773495</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329748</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>97.97552699114107</v>
       </c>
       <c r="T11" t="n">
-        <v>33.26275892920829</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035266</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009508</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.5448790582715</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>79.00824149146344</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001811</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793451</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>38.03682829123401</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824992</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179931</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.74133133758817</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.006892987834004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.696957004693</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788180381</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.78315874934793</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0.8253826161907616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>240.3363440419456</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.574246756697</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>829.6117298162851</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>829.6117298162851</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>829.6117298162851</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>418.6258250266775</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1585.174086820819</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057879</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>114.543262603435</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.264883884485</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159568</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751768</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.576367813029</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885122</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2040.148693270334</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>2040.148693270334</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>2040.148693270334</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>2040.148693270334</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>2040.148693270334</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1500.227517577121</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="C5" t="n">
-        <v>1263.725694231566</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>447.5189834864572</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577121</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.227517577121</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.24678656800311</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1380.342820051861</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="C8" t="n">
-        <v>1380.342820051861</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>709.4196160770496</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4835,19 +4835,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051861</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1380.342820051861</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2555.949435236615</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.8722344236533</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>479.9360514957464</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>329.8194120834106</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>329.8194120834106</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>329.8194120834106</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>161.8329473916892</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,25 +4960,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1274.19554437845</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>985.0772068822877</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671834</v>
+        <v>730.3927186764008</v>
       </c>
       <c r="W10" t="n">
-        <v>869.6648135671834</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="X10" t="n">
-        <v>869.6648135671834</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.8722344236533</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>512.3331043803402</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420337</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="T11" t="n">
-        <v>3792.989386062523</v>
+        <v>3622.786021971439</v>
       </c>
       <c r="U11" t="n">
-        <v>3792.989386062523</v>
+        <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3461.926498718952</v>
+        <v>3038.232418260477</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448838</v>
+        <v>2685.463762990363</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.998004729283</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1921.858672753471</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792127</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.16213223765</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843891</v>
+        <v>900.4499396649594</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282785</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>862.4048932799243</v>
+        <v>203.8650582458543</v>
       </c>
       <c r="C13" t="n">
-        <v>693.4687103520174</v>
+        <v>203.8650582458542</v>
       </c>
       <c r="D13" t="n">
-        <v>543.3520709396817</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="E13" t="n">
-        <v>395.4389773572884</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>248.5490298593782</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457701</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888913</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014274</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564319</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1855.288681564319</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1600.604193358432</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1311.187023321472</v>
+        <v>834.2956531176415</v>
       </c>
       <c r="X13" t="n">
-        <v>1083.197472423454</v>
+        <v>606.3061022196241</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.4048932799243</v>
+        <v>385.513523076094</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,7 +5261,7 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5279,7 +5279,7 @@
         <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331903</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.0885253246404</v>
+        <v>494.058990022073</v>
       </c>
       <c r="C16" t="n">
-        <v>576.1523423967335</v>
+        <v>494.058990022073</v>
       </c>
       <c r="D16" t="n">
-        <v>426.0357029843979</v>
+        <v>494.058990022073</v>
       </c>
       <c r="E16" t="n">
-        <v>278.1226094020049</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>131.2326619040946</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>131.2326619040946</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>131.2326619040946</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608048</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410166</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410166</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410166</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124548</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439275</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233388</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196428</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.52956929841</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548801</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="17">
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876695</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876695</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753339</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>282.8695714929408</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>135.9796239950306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614394</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179092</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597617</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597617</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773687</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279803</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.240688199803</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.823518162842</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.833967264825</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675713</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851784</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230597</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230597</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1984.597634722449</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.913146516562</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.495976479601</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.506425581584</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="41">
@@ -7400,37 +7400,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>251.5626541092265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249853</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7637,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188011</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908942</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.101820392571</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490408</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883066889</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130761</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
-        <v>231.2582814363241</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>27.39221874047908</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-9.504120283045122e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803279</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>168.5013304501696</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726158</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>140.2602194899512</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863466</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>43.76774845317504</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4693302300324</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>123.7828069546807</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>142.4141550350973</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.5498640939348</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347509</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8014946027469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237477</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>45.84813034729856</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890566.7264417694</v>
+        <v>890566.7264417689</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969315.1656157605</v>
+        <v>969315.1656157604</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>974675.3592781308</v>
+        <v>974675.3592781307</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974675.3592781308</v>
+        <v>974675.3592781309</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>451572.9734253558</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.973425356</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.8397795042</v>
+        <v>405380.8397795039</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009169</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
@@ -26338,22 +26338,22 @@
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="P2" t="n">
         <v>443930.6298295033</v>
-      </c>
-      <c r="P2" t="n">
-        <v>443930.6298295035</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357068</v>
+        <v>325187.1190357058</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051372</v>
+        <v>166521.347105138</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557934</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456832</v>
+        <v>84929.59434456809</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848887</v>
+        <v>43782.40655848909</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224802</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
-      </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6798.303539401317</v>
       </c>
       <c r="F4" t="n">
-        <v>6890.891875482007</v>
+        <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670738</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707335</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.7724398447</v>
-      </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-888026.3094220336</v>
       </c>
       <c r="C6" t="n">
-        <v>226725.4741538861</v>
+        <v>226725.4741538865</v>
       </c>
       <c r="D6" t="n">
-        <v>226725.4741538865</v>
+        <v>226725.474153886</v>
       </c>
       <c r="E6" t="n">
-        <v>-12698.30495775102</v>
+        <v>-12908.26920159505</v>
       </c>
       <c r="F6" t="n">
-        <v>167919.5069064593</v>
+        <v>167873.601910893</v>
       </c>
       <c r="G6" t="n">
-        <v>324743.4392733097</v>
+        <v>324708.7013478739</v>
       </c>
       <c r="H6" t="n">
-        <v>335910.6755088891</v>
+        <v>335875.9375834533</v>
       </c>
       <c r="I6" t="n">
-        <v>335910.6755088887</v>
+        <v>335875.9375834533</v>
       </c>
       <c r="J6" t="n">
-        <v>168305.4976989067</v>
+        <v>168270.7597734708</v>
       </c>
       <c r="K6" t="n">
-        <v>335910.6755088891</v>
+        <v>335875.937583453</v>
       </c>
       <c r="L6" t="n">
-        <v>335910.6755088887</v>
+        <v>335875.937583453</v>
       </c>
       <c r="M6" t="n">
-        <v>250981.0811643206</v>
+        <v>250946.343238885</v>
       </c>
       <c r="N6" t="n">
-        <v>292128.2689503999</v>
+        <v>292093.5310249643</v>
       </c>
       <c r="O6" t="n">
-        <v>332887.377531664</v>
+        <v>332852.6396062285</v>
       </c>
       <c r="P6" t="n">
-        <v>335910.6755088892</v>
+        <v>335875.9375834531</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086474</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.105375377017</v>
+        <v>278.1053753770161</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288375</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086095</v>
+        <v>340.8034957086086</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364234</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086095</v>
+        <v>340.8034957086086</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364234</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086095</v>
+        <v>340.8034957086086</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364234</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>348.8610072612718</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.751984957988043</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.5253779792054</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>170.9258179227451</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>131.1360866589085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>374.7731088725335</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>115.2459207102716</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0301822212052</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>115.4914826078471</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>37.77120993967964</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,10 +28059,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>56.78308641986246</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485647</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508989</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726053</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216968</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857421</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898383</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294404</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615134</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895584</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596473</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202552</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735496</v>
+        <v>566.1178216256412</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845326</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147137</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>179.564266001725</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.8817840205468</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697584</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570605</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826899</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -32072,10 +32072,10 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848223</v>
@@ -32084,19 +32084,19 @@
         <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>427.3161054158224</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238242</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2373595085334</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922414</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>380.8714430074307</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>553.5225306839448</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422171</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>622.455381029198</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>6.454437538929201</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276248</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584694</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932474</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077536</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062438</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151089</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156587</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458962</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693675424</v>
+        <v>427.563441845767</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313804</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>36.96802155728054</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211629</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936561</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.1825931670183</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765378</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998349</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104633</v>
@@ -35732,19 +35732,19 @@
         <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>295.9743933324891</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793797</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>6.395920534174449</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
